--- a/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
+++ b/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,8 +765,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25:H31"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>5900</v>
+        <v>6500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -886,9 +886,15 @@
       <c r="I3" s="1">
         <v>61</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="1"/>
+      <c r="J3" s="3">
+        <v>45272</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
       <c r="M3" s="1">
         <v>91</v>
       </c>
@@ -924,9 +930,15 @@
       <c r="I4" s="1">
         <v>62</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1"/>
+      <c r="J4" s="3">
+        <v>45273</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
       <c r="M4" s="1">
         <v>92</v>
       </c>
@@ -962,9 +974,15 @@
       <c r="I5" s="1">
         <v>63</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="3">
+        <v>45274</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
       <c r="M5" s="1">
         <v>93</v>
       </c>
@@ -1000,9 +1018,15 @@
       <c r="I6" s="1">
         <v>64</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="3">
+        <v>45275</v>
+      </c>
+      <c r="K6" s="4">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
       <c r="M6" s="1">
         <v>94</v>
       </c>
@@ -1038,9 +1062,15 @@
       <c r="I7" s="1">
         <v>65</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="3">
+        <v>45276</v>
+      </c>
+      <c r="K7" s="4">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="1">
         <v>95</v>
       </c>
@@ -1976,9 +2006,15 @@
       <c r="E32" s="1">
         <v>60</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="3">
+        <v>45271</v>
+      </c>
+      <c r="G32" s="4">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
       <c r="I32" s="1">
         <v>90</v>
       </c>

--- a/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
+++ b/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L7"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>6500</v>
+        <v>7100</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>5500</v>
+        <v>4900</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1106,9 +1106,15 @@
       <c r="I8" s="1">
         <v>66</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="3">
+        <v>45277</v>
+      </c>
+      <c r="K8" s="4">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
       <c r="M8" s="1">
         <v>96</v>
       </c>
@@ -1144,9 +1150,15 @@
       <c r="I9" s="1">
         <v>67</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="3">
+        <v>45278</v>
+      </c>
+      <c r="K9" s="4">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="1">
         <v>97</v>
       </c>
@@ -1182,9 +1194,15 @@
       <c r="I10" s="1">
         <v>68</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="3">
+        <v>45279</v>
+      </c>
+      <c r="K10" s="4">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
       <c r="M10" s="1">
         <v>98</v>
       </c>
@@ -1220,9 +1238,15 @@
       <c r="I11" s="1">
         <v>69</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="1"/>
+      <c r="J11" s="3">
+        <v>45280</v>
+      </c>
+      <c r="K11" s="4">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
       <c r="M11" s="1">
         <v>99</v>
       </c>
@@ -1258,9 +1282,15 @@
       <c r="I12" s="1">
         <v>70</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="3">
+        <v>45281</v>
+      </c>
+      <c r="K12" s="4">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
       <c r="M12" s="1">
         <v>100</v>
       </c>
@@ -1296,9 +1326,15 @@
       <c r="I13" s="1">
         <v>71</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="1"/>
+      <c r="J13" s="3">
+        <v>45282</v>
+      </c>
+      <c r="K13" s="4">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
       <c r="M13" s="1">
         <v>101</v>
       </c>

--- a/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
+++ b/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7:L13"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>7100</v>
+        <v>7900</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1370,9 +1370,15 @@
       <c r="I14" s="1">
         <v>72</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
+      <c r="J14" s="3">
+        <v>45283</v>
+      </c>
+      <c r="K14" s="4">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
       <c r="M14" s="1">
         <v>102</v>
       </c>
@@ -1408,9 +1414,15 @@
       <c r="I15" s="1">
         <v>73</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
+      <c r="J15" s="3">
+        <v>45284</v>
+      </c>
+      <c r="K15" s="4">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
       <c r="M15" s="1">
         <v>103</v>
       </c>
@@ -1446,9 +1458,15 @@
       <c r="I16" s="1">
         <v>74</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="1"/>
+      <c r="J16" s="3">
+        <v>45285</v>
+      </c>
+      <c r="K16" s="4">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
       <c r="M16" s="1">
         <v>104</v>
       </c>
@@ -1484,9 +1502,15 @@
       <c r="I17" s="1">
         <v>75</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="1"/>
+      <c r="J17" s="3">
+        <v>45286</v>
+      </c>
+      <c r="K17" s="4">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
       <c r="M17" s="1">
         <v>105</v>
       </c>
@@ -1522,9 +1546,15 @@
       <c r="I18" s="1">
         <v>76</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="1"/>
+      <c r="J18" s="3">
+        <v>45287</v>
+      </c>
+      <c r="K18" s="4">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
       <c r="M18" s="1">
         <v>106</v>
       </c>
@@ -1560,9 +1590,15 @@
       <c r="I19" s="1">
         <v>77</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="1"/>
+      <c r="J19" s="3">
+        <v>45288</v>
+      </c>
+      <c r="K19" s="4">
+        <v>100</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
       <c r="M19" s="1">
         <v>107</v>
       </c>
@@ -1598,9 +1634,15 @@
       <c r="I20" s="1">
         <v>78</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="1"/>
+      <c r="J20" s="3">
+        <v>45289</v>
+      </c>
+      <c r="K20" s="4">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
       <c r="M20" s="1">
         <v>108</v>
       </c>
@@ -1636,9 +1678,15 @@
       <c r="I21" s="1">
         <v>79</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="1"/>
+      <c r="J21" s="3">
+        <v>45290</v>
+      </c>
+      <c r="K21" s="4">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
       <c r="M21" s="1">
         <v>109</v>
       </c>

--- a/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
+++ b/LoanOfficer-A/2023/Loanee-Priyadarshini.xlsx
@@ -321,7 +321,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,8 +765,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13:L21"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1722,9 +1722,15 @@
       <c r="I22" s="1">
         <v>80</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="1"/>
+      <c r="J22" s="3">
+        <v>45291</v>
+      </c>
+      <c r="K22" s="4">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
       <c r="M22" s="1">
         <v>110</v>
       </c>
@@ -1760,9 +1766,15 @@
       <c r="I23" s="1">
         <v>81</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="3">
+        <v>45292</v>
+      </c>
+      <c r="K23" s="4">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
       <c r="M23" s="1">
         <v>111</v>
       </c>
@@ -1798,9 +1810,15 @@
       <c r="I24" s="1">
         <v>82</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="1"/>
+      <c r="J24" s="3">
+        <v>45293</v>
+      </c>
+      <c r="K24" s="4">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
       <c r="M24" s="1">
         <v>112</v>
       </c>
@@ -1836,9 +1854,15 @@
       <c r="I25" s="1">
         <v>83</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="1"/>
+      <c r="J25" s="3">
+        <v>45294</v>
+      </c>
+      <c r="K25" s="4">
+        <v>100</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
       <c r="M25" s="1">
         <v>113</v>
       </c>
@@ -1874,9 +1898,15 @@
       <c r="I26" s="1">
         <v>84</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="1"/>
+      <c r="J26" s="3">
+        <v>45295</v>
+      </c>
+      <c r="K26" s="4">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
       <c r="M26" s="1">
         <v>114</v>
       </c>
@@ -1912,9 +1942,15 @@
       <c r="I27" s="1">
         <v>85</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="1"/>
+      <c r="J27" s="3">
+        <v>45296</v>
+      </c>
+      <c r="K27" s="4">
+        <v>100</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
       <c r="M27" s="1">
         <v>115</v>
       </c>
